--- a/MainTop/20.01.2026 Таня ВБ/p2.xlsx
+++ b/MainTop/20.01.2026 Таня ВБ/p2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Среднее количество заказов в день, шт</t>
+          <t>Num_Copies</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Остатки склад ВБ, шт</t>
+          <t>Тип упорядочить</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Остатки МП, шт</t>
+          <t>Имя папки</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>дней</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Num_Copies</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Тип упорядочить</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Имя папки</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Остаток</t>
         </is>
@@ -487,32 +467,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F2" t="n">
-        <v>38</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>4.200000000000003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -522,32 +490,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>3.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -557,32 +513,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
         <v>32</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>-10.9</v>
       </c>
     </row>
     <row r="5">
@@ -592,32 +536,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
         <v>32</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="6">
@@ -627,32 +559,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>3.800000000000001</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -662,32 +582,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>31</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>-28.4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -697,32 +605,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>26</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>-5.199999999999999</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -732,32 +628,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
-      </c>
-      <c r="F9" t="n">
         <v>24</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>-11.3</v>
       </c>
     </row>
     <row r="10">
@@ -767,32 +651,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>20</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
-      </c>
-      <c r="F10" t="n">
         <v>24</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>-22.7</v>
       </c>
     </row>
     <row r="11">
@@ -802,32 +674,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>15</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
-      </c>
-      <c r="F11" t="n">
         <v>20</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>-21.4</v>
       </c>
     </row>
     <row r="12">
@@ -837,32 +697,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>51</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
-      </c>
-      <c r="F12" t="n">
         <v>20</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>-58.8</v>
       </c>
     </row>
     <row r="13">
@@ -872,67 +720,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
-      </c>
-      <c r="F13" t="n">
-        <v>18</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>-12.9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Термонаклейка Ловец снов акварель</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25</v>
-      </c>
-      <c r="F14" t="n">
-        <v>18</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>-16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
